--- a/DATA/collate_cultivar_data/data/smoothed_kcp_trend_vs_datetime.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_kcp_trend_vs_datetime.xlsx
@@ -1898,7 +1898,7 @@
         <v>43104</v>
       </c>
       <c r="B189">
-        <v>0.4435496</v>
+        <v>0.4435497</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>43122</v>
       </c>
       <c r="B207">
-        <v>0.4537514</v>
+        <v>0.4537515</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>43124</v>
       </c>
       <c r="B209">
-        <v>0.4543518</v>
+        <v>0.4543519</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>43125</v>
       </c>
       <c r="B210">
-        <v>0.4546299</v>
+        <v>0.45463</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>43126</v>
       </c>
       <c r="B211">
-        <v>0.4548948</v>
+        <v>0.4548949</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>43127</v>
       </c>
       <c r="B212">
-        <v>0.4551474</v>
+        <v>0.4551475</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>43128</v>
       </c>
       <c r="B213">
-        <v>0.4553886</v>
+        <v>0.4553887</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>43129</v>
       </c>
       <c r="B214">
-        <v>0.4556191</v>
+        <v>0.4556192</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>43130</v>
       </c>
       <c r="B215">
-        <v>0.4558395</v>
+        <v>0.4558397</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>43131</v>
       </c>
       <c r="B216">
-        <v>0.4560503</v>
+        <v>0.4560505</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>43132</v>
       </c>
       <c r="B217">
-        <v>0.4562519</v>
+        <v>0.4562522</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>43133</v>
       </c>
       <c r="B218">
-        <v>0.4564445</v>
+        <v>0.4564449</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>43134</v>
       </c>
       <c r="B219">
-        <v>0.4566282</v>
+        <v>0.4566287</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>43135</v>
       </c>
       <c r="B220">
-        <v>0.4568031</v>
+        <v>0.4568037</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>43136</v>
       </c>
       <c r="B221">
-        <v>0.456969</v>
+        <v>0.4569697</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>43137</v>
       </c>
       <c r="B222">
-        <v>0.4571256</v>
+        <v>0.4571265</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>43138</v>
       </c>
       <c r="B223">
-        <v>0.4572725</v>
+        <v>0.4572737</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>43139</v>
       </c>
       <c r="B224">
-        <v>0.4574093</v>
+        <v>0.4574107</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>43140</v>
       </c>
       <c r="B225">
-        <v>0.4575354</v>
+        <v>0.457537</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>43141</v>
       </c>
       <c r="B226">
-        <v>0.4576498</v>
+        <v>0.4576518</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>43142</v>
       </c>
       <c r="B227">
-        <v>0.4577518</v>
+        <v>0.4577543</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>43143</v>
       </c>
       <c r="B228">
-        <v>0.4578403</v>
+        <v>0.4578434</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>43144</v>
       </c>
       <c r="B229">
-        <v>0.4579143</v>
+        <v>0.457918</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>43145</v>
       </c>
       <c r="B230">
-        <v>0.4579724</v>
+        <v>0.4579769</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>43146</v>
       </c>
       <c r="B231">
-        <v>0.4580133</v>
+        <v>0.4580188</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>43147</v>
       </c>
       <c r="B232">
-        <v>0.4580356</v>
+        <v>0.4580422</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>43148</v>
       </c>
       <c r="B233">
-        <v>0.4580377</v>
+        <v>0.4580458</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>43149</v>
       </c>
       <c r="B234">
-        <v>0.458018</v>
+        <v>0.4580277</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>43150</v>
       </c>
       <c r="B235">
-        <v>0.4579747</v>
+        <v>0.4579864</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>43151</v>
       </c>
       <c r="B236">
-        <v>0.4579059</v>
+        <v>0.4579201</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>43152</v>
       </c>
       <c r="B237">
-        <v>0.4578099</v>
+        <v>0.4578269</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>43153</v>
       </c>
       <c r="B238">
-        <v>0.4576845</v>
+        <v>0.4577049</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>43154</v>
       </c>
       <c r="B239">
-        <v>0.4575277</v>
+        <v>0.4575523</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>43155</v>
       </c>
       <c r="B240">
-        <v>0.4573376</v>
+        <v>0.457367</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>43156</v>
       </c>
       <c r="B241">
-        <v>0.4571117</v>
+        <v>0.457147</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>43157</v>
       </c>
       <c r="B242">
-        <v>0.4568481</v>
+        <v>0.4568902</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>43158</v>
       </c>
       <c r="B243">
-        <v>0.4565444</v>
+        <v>0.4565946</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>43159</v>
       </c>
       <c r="B244">
-        <v>0.4561984</v>
+        <v>0.4562582</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>43160</v>
       </c>
       <c r="B245">
-        <v>0.4558076</v>
+        <v>0.4558788</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>43161</v>
       </c>
       <c r="B246">
-        <v>0.4553698</v>
+        <v>0.4554544</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>43162</v>
       </c>
       <c r="B247">
-        <v>0.4548827</v>
+        <v>0.454983</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>43163</v>
       </c>
       <c r="B248">
-        <v>0.4543437</v>
+        <v>0.4544625</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>43164</v>
       </c>
       <c r="B249">
-        <v>0.4537504</v>
+        <v>0.453891</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>43165</v>
       </c>
       <c r="B250">
-        <v>0.4531004</v>
+        <v>0.4532664</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>43166</v>
       </c>
       <c r="B251">
-        <v>0.4523913</v>
+        <v>0.4525869</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>43167</v>
       </c>
       <c r="B252">
-        <v>0.4516203</v>
+        <v>0.4518506</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>43168</v>
       </c>
       <c r="B253">
-        <v>0.4507851</v>
+        <v>0.4510556</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>43169</v>
       </c>
       <c r="B254">
-        <v>0.4498829</v>
+        <v>0.4502002</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>43170</v>
       </c>
       <c r="B255">
-        <v>0.4489111</v>
+        <v>0.4492828</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>43171</v>
       </c>
       <c r="B256">
-        <v>0.4478669</v>
+        <v>0.4483015</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>43172</v>
       </c>
       <c r="B257">
-        <v>0.4467476</v>
+        <v>0.4472549</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>43173</v>
       </c>
       <c r="B258">
-        <v>0.4455501</v>
+        <v>0.4461413</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>43174</v>
       </c>
       <c r="B259">
-        <v>0.4442714</v>
+        <v>0.4449593</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>43175</v>
       </c>
       <c r="B260">
-        <v>0.4429085</v>
+        <v>0.4437074</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>43176</v>
       </c>
       <c r="B261">
-        <v>0.441458</v>
+        <v>0.4423843</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>43177</v>
       </c>
       <c r="B262">
-        <v>0.4399164</v>
+        <v>0.4409886</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>43178</v>
       </c>
       <c r="B263">
-        <v>0.4382803</v>
+        <v>0.4395192</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>43179</v>
       </c>
       <c r="B264">
-        <v>0.4365457</v>
+        <v>0.4379747</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>43180</v>
       </c>
       <c r="B265">
-        <v>0.4347088</v>
+        <v>0.436354</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>43181</v>
       </c>
       <c r="B266">
-        <v>0.4327652</v>
+        <v>0.4346561</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>43182</v>
       </c>
       <c r="B267">
-        <v>0.4307107</v>
+        <v>0.4328798</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>43183</v>
       </c>
       <c r="B268">
-        <v>0.4285405</v>
+        <v>0.4310242</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>43184</v>
       </c>
       <c r="B269">
-        <v>0.4262497</v>
+        <v>0.4290882</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>43185</v>
       </c>
       <c r="B270">
-        <v>0.4238332</v>
+        <v>0.4270711</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>43186</v>
       </c>
       <c r="B271">
-        <v>0.4212857</v>
+        <v>0.4249719</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>43187</v>
       </c>
       <c r="B272">
-        <v>0.4186017</v>
+        <v>0.4227898</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>43188</v>
       </c>
       <c r="B273">
-        <v>0.4157753</v>
+        <v>0.4205241</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>43189</v>
       </c>
       <c r="B274">
-        <v>0.4128006</v>
+        <v>0.418174</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>43190</v>
       </c>
       <c r="B275">
-        <v>0.4096716</v>
+        <v>0.4157388</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>43191</v>
       </c>
       <c r="B276">
-        <v>0.4063822</v>
+        <v>0.4132181</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>43192</v>
       </c>
       <c r="B277">
-        <v>0.4029264</v>
+        <v>0.4106111</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>43193</v>
       </c>
       <c r="B278">
-        <v>0.3992981</v>
+        <v>0.4079175</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>43194</v>
       </c>
       <c r="B279">
-        <v>0.3954915</v>
+        <v>0.4051368</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>43195</v>
       </c>
       <c r="B280">
-        <v>0.3915011</v>
+        <v>0.4022686</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>43196</v>
       </c>
       <c r="B281">
-        <v>0.3873219</v>
+        <v>0.3993126</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>43197</v>
       </c>
       <c r="B282">
-        <v>0.3829493</v>
+        <v>0.3962687</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>43198</v>
       </c>
       <c r="B283">
-        <v>0.3783798</v>
+        <v>0.3931366</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>43199</v>
       </c>
       <c r="B284">
-        <v>0.3736103</v>
+        <v>0.3899162</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>43200</v>
       </c>
       <c r="B285">
-        <v>0.3686394</v>
+        <v>0.3866077</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>43201</v>
       </c>
       <c r="B286">
-        <v>0.3634664</v>
+        <v>0.3832111</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>43202</v>
       </c>
       <c r="B287">
-        <v>0.3580927</v>
+        <v>0.3797266</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>43203</v>
       </c>
       <c r="B288">
-        <v>0.3525208</v>
+        <v>0.3761545</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>43204</v>
       </c>
       <c r="B289">
-        <v>0.3467553</v>
+        <v>0.3724951</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>43205</v>
       </c>
       <c r="B290">
-        <v>0.3408028</v>
+        <v>0.3687491</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>43206</v>
       </c>
       <c r="B291">
-        <v>0.334672</v>
+        <v>0.3649171</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>43207</v>
       </c>
       <c r="B292">
-        <v>0.3283735</v>
+        <v>0.3609997</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>43208</v>
       </c>
       <c r="B293">
-        <v>0.3219205</v>
+        <v>0.3569978</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>43209</v>
       </c>
       <c r="B294">
-        <v>0.315328</v>
+        <v>0.3529125</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>43210</v>
       </c>
       <c r="B295">
-        <v>0.3086133</v>
+        <v>0.3487448</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>43211</v>
       </c>
       <c r="B296">
-        <v>0.3017956</v>
+        <v>0.3444962</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>43212</v>
       </c>
       <c r="B297">
-        <v>0.294896</v>
+        <v>0.340168</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>43213</v>
       </c>
       <c r="B298">
-        <v>0.2879367</v>
+        <v>0.3357618</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>43214</v>
       </c>
       <c r="B299">
-        <v>0.2809415</v>
+        <v>0.3312795</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>43215</v>
       </c>
       <c r="B300">
-        <v>0.2739348</v>
+        <v>0.3267231</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>43216</v>
       </c>
       <c r="B301">
-        <v>0.2669416</v>
+        <v>0.3220947</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>43217</v>
       </c>
       <c r="B302">
-        <v>0.2599867</v>
+        <v>0.3173969</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>43218</v>
       </c>
       <c r="B303">
-        <v>0.2530949</v>
+        <v>0.3126322</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>43219</v>
       </c>
       <c r="B304">
-        <v>0.2462898</v>
+        <v>0.3078037</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>43220</v>
       </c>
       <c r="B305">
-        <v>0.2395943</v>
+        <v>0.3029145</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>43221</v>
       </c>
       <c r="B306">
-        <v>0.2330295</v>
+        <v>0.2979681</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>43222</v>
       </c>
       <c r="B307">
-        <v>0.226615</v>
+        <v>0.2929683</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>43223</v>
       </c>
       <c r="B308">
-        <v>0.2203683</v>
+        <v>0.2879194</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>43224</v>
       </c>
       <c r="B309">
-        <v>0.2143046</v>
+        <v>0.2828257</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>43225</v>
       </c>
       <c r="B310">
-        <v>0.208437</v>
+        <v>0.2776922</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>43226</v>
       </c>
       <c r="B311">
-        <v>0.2027763</v>
+        <v>0.272524</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>43227</v>
       </c>
       <c r="B312">
-        <v>0.1973308</v>
+        <v>0.2673268</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>43228</v>
       </c>
       <c r="B313">
-        <v>0.1921068</v>
+        <v>0.2621064</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>43229</v>
       </c>
       <c r="B314">
-        <v>0.1871081</v>
+        <v>0.2568692</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>43230</v>
       </c>
       <c r="B315">
-        <v>0.1823367</v>
+        <v>0.251622</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>43231</v>
       </c>
       <c r="B316">
-        <v>0.1777926</v>
+        <v>0.2463716</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>43232</v>
       </c>
       <c r="B317">
-        <v>0.1734744</v>
+        <v>0.2411255</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>43233</v>
       </c>
       <c r="B318">
-        <v>0.1693788</v>
+        <v>0.2358913</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>43234</v>
       </c>
       <c r="B319">
-        <v>0.1655014</v>
+        <v>0.2306768</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>43235</v>
       </c>
       <c r="B320">
-        <v>0.1618368</v>
+        <v>0.2254902</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>43236</v>
       </c>
       <c r="B321">
-        <v>0.1583787</v>
+        <v>0.2203396</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>43237</v>
       </c>
       <c r="B322">
-        <v>0.1551198</v>
+        <v>0.2152333</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>43238</v>
       </c>
       <c r="B323">
-        <v>0.1520526</v>
+        <v>0.2101797</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>43239</v>
       </c>
       <c r="B324">
-        <v>0.1491689</v>
+        <v>0.2051871</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>43240</v>
       </c>
       <c r="B325">
-        <v>0.1464606</v>
+        <v>0.2002635</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>43241</v>
       </c>
       <c r="B326">
-        <v>0.143919</v>
+        <v>0.1954169</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>43242</v>
       </c>
       <c r="B327">
-        <v>0.1415359</v>
+        <v>0.1906549</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>43243</v>
       </c>
       <c r="B328">
-        <v>0.1393027</v>
+        <v>0.185985</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>43244</v>
       </c>
       <c r="B329">
-        <v>0.1372111</v>
+        <v>0.181414</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>43245</v>
       </c>
       <c r="B330">
-        <v>0.135253</v>
+        <v>0.1769483</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>43246</v>
       </c>
       <c r="B331">
-        <v>0.1334205</v>
+        <v>0.1725939</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>43247</v>
       </c>
       <c r="B332">
-        <v>0.1317062</v>
+        <v>0.1683561</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>43248</v>
       </c>
       <c r="B333">
-        <v>0.1301025</v>
+        <v>0.1642397</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>43249</v>
       </c>
       <c r="B334">
-        <v>0.1286027</v>
+        <v>0.1602486</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>43250</v>
       </c>
       <c r="B335">
-        <v>0.1271999</v>
+        <v>0.1563864</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>43251</v>
       </c>
       <c r="B336">
-        <v>0.125888</v>
+        <v>0.1526557</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>43252</v>
       </c>
       <c r="B337">
-        <v>0.124661</v>
+        <v>0.1490586</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>43253</v>
       </c>
       <c r="B338">
-        <v>0.1235132</v>
+        <v>0.1455965</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>43254</v>
       </c>
       <c r="B339">
-        <v>0.1224393</v>
+        <v>0.1422702</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>43255</v>
       </c>
       <c r="B340">
-        <v>0.1214343</v>
+        <v>0.1390798</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>43256</v>
       </c>
       <c r="B341">
-        <v>0.1204937</v>
+        <v>0.1360248</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>43257</v>
       </c>
       <c r="B342">
-        <v>0.1196129</v>
+        <v>0.1331042</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>43258</v>
       </c>
       <c r="B343">
-        <v>0.118788</v>
+        <v>0.1303165</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>43259</v>
       </c>
       <c r="B344">
-        <v>0.1180151</v>
+        <v>0.1276596</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3146,7 +3146,7 @@
         <v>43260</v>
       </c>
       <c r="B345">
-        <v>0.1172906</v>
+        <v>0.1251313</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3154,7 +3154,7 @@
         <v>43261</v>
       </c>
       <c r="B346">
-        <v>0.1166113</v>
+        <v>0.1227286</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3162,7 +3162,7 @@
         <v>43262</v>
       </c>
       <c r="B347">
-        <v>0.115974</v>
+        <v>0.1204485</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3170,7 +3170,7 @@
         <v>43263</v>
       </c>
       <c r="B348">
-        <v>0.1153759</v>
+        <v>0.1182875</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3178,7 +3178,7 @@
         <v>43264</v>
       </c>
       <c r="B349">
-        <v>0.1148143</v>
+        <v>0.1162422</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3186,7 +3186,7 @@
         <v>43265</v>
       </c>
       <c r="B350">
-        <v>0.1142868</v>
+        <v>0.1143086</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3194,7 +3194,7 @@
         <v>43266</v>
       </c>
       <c r="B351">
-        <v>0.113791</v>
+        <v>0.1124828</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3202,7 +3202,7 @@
         <v>43267</v>
       </c>
       <c r="B352">
-        <v>0.1133247</v>
+        <v>0.1107608</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3210,7 +3210,7 @@
         <v>43268</v>
       </c>
       <c r="B353">
-        <v>0.1128861</v>
+        <v>0.1091385</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>43269</v>
       </c>
       <c r="B354">
-        <v>0.1124732</v>
+        <v>0.1076117</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>43270</v>
       </c>
       <c r="B355">
-        <v>0.1120844</v>
+        <v>0.1061762</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>43271</v>
       </c>
       <c r="B356">
-        <v>0.111718</v>
+        <v>0.104828</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>43272</v>
       </c>
       <c r="B357">
-        <v>0.1113726</v>
+        <v>0.1035628</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>43273</v>
       </c>
       <c r="B358">
-        <v>0.1110467</v>
+        <v>0.1023768</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3258,7 +3258,7 @@
         <v>43274</v>
       </c>
       <c r="B359">
-        <v>0.1107392</v>
+        <v>0.1012658</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3266,7 +3266,7 @@
         <v>43275</v>
       </c>
       <c r="B360">
-        <v>0.1104489</v>
+        <v>0.1002261</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3274,7 +3274,7 @@
         <v>43276</v>
       </c>
       <c r="B361">
-        <v>0.1101745</v>
+        <v>0.099254</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3282,7 +3282,7 @@
         <v>43277</v>
       </c>
       <c r="B362">
-        <v>0.1099152</v>
+        <v>0.09834569999999999</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3290,7 +3290,7 @@
         <v>43278</v>
       </c>
       <c r="B363">
-        <v>0.10967</v>
+        <v>0.09749770000000001</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3298,7 +3298,7 @@
         <v>43279</v>
       </c>
       <c r="B364">
-        <v>0.109438</v>
+        <v>0.09670670000000001</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3306,7 +3306,7 @@
         <v>43280</v>
       </c>
       <c r="B365">
-        <v>0.1092183</v>
+        <v>0.0959694</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3314,7 +3314,7 @@
         <v>43281</v>
       </c>
       <c r="B366">
-        <v>0.1090103</v>
+        <v>0.0952827</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3322,7 +3322,7 @@
         <v>43282</v>
       </c>
       <c r="B367">
-        <v>0.1088131</v>
+        <v>0.09464350000000001</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/smoothed_kcp_trend_vs_datetime.xlsx
+++ b/DATA/collate_cultivar_data/data/smoothed_kcp_trend_vs_datetime.xlsx
@@ -402,7 +402,7 @@
         <v>42917</v>
       </c>
       <c r="B2">
-        <v>0.109133</v>
+        <v>0.1093172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>42918</v>
       </c>
       <c r="B3">
-        <v>0.1092034</v>
+        <v>0.1093896</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>42919</v>
       </c>
       <c r="B4">
-        <v>0.1092763</v>
+        <v>0.1094644</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -426,7 +426,7 @@
         <v>42920</v>
       </c>
       <c r="B5">
-        <v>0.1093516</v>
+        <v>0.1095414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +434,7 @@
         <v>42921</v>
       </c>
       <c r="B6">
-        <v>0.1094293</v>
+        <v>0.1096206</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -442,7 +442,7 @@
         <v>42922</v>
       </c>
       <c r="B7">
-        <v>0.1095091</v>
+        <v>0.1097017</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -450,7 +450,7 @@
         <v>42923</v>
       </c>
       <c r="B8">
-        <v>0.109591</v>
+        <v>0.1097847</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -458,7 +458,7 @@
         <v>42924</v>
       </c>
       <c r="B9">
-        <v>0.1096748</v>
+        <v>0.1098695</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -466,7 +466,7 @@
         <v>42925</v>
       </c>
       <c r="B10">
-        <v>0.1097603</v>
+        <v>0.1099558</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -474,7 +474,7 @@
         <v>42926</v>
       </c>
       <c r="B11">
-        <v>0.1098474</v>
+        <v>0.1100435</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -482,7 +482,7 @@
         <v>42927</v>
       </c>
       <c r="B12">
-        <v>0.109936</v>
+        <v>0.1101324</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -490,7 +490,7 @@
         <v>42928</v>
       </c>
       <c r="B13">
-        <v>0.1100257</v>
+        <v>0.1102222</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -498,7 +498,7 @@
         <v>42929</v>
       </c>
       <c r="B14">
-        <v>0.1101164</v>
+        <v>0.1103129</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -506,7 +506,7 @@
         <v>42930</v>
       </c>
       <c r="B15">
-        <v>0.1102078</v>
+        <v>0.1104041</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -514,7 +514,7 @@
         <v>42931</v>
       </c>
       <c r="B16">
-        <v>0.1102998</v>
+        <v>0.1104957</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -522,7 +522,7 @@
         <v>42932</v>
       </c>
       <c r="B17">
-        <v>0.1103921</v>
+        <v>0.1105874</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -530,7 +530,7 @@
         <v>42933</v>
       </c>
       <c r="B18">
-        <v>0.1104843</v>
+        <v>0.1106788</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -538,7 +538,7 @@
         <v>42934</v>
       </c>
       <c r="B19">
-        <v>0.1105764</v>
+        <v>0.1107699</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -546,7 +546,7 @@
         <v>42935</v>
       </c>
       <c r="B20">
-        <v>0.1106678</v>
+        <v>0.1108602</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -554,7 +554,7 @@
         <v>42936</v>
       </c>
       <c r="B21">
-        <v>0.1107585</v>
+        <v>0.1109495</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -562,7 +562,7 @@
         <v>42937</v>
       </c>
       <c r="B22">
-        <v>0.110848</v>
+        <v>0.1110376</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -570,7 +570,7 @@
         <v>42938</v>
       </c>
       <c r="B23">
-        <v>0.1109361</v>
+        <v>0.1111241</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -578,7 +578,7 @@
         <v>42939</v>
       </c>
       <c r="B24">
-        <v>0.1110225</v>
+        <v>0.1112087</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -586,7 +586,7 @@
         <v>42940</v>
       </c>
       <c r="B25">
-        <v>0.1111068</v>
+        <v>0.1112912</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -594,7 +594,7 @@
         <v>42941</v>
       </c>
       <c r="B26">
-        <v>0.1111888</v>
+        <v>0.1113712</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -602,7 +602,7 @@
         <v>42942</v>
       </c>
       <c r="B27">
-        <v>0.1112682</v>
+        <v>0.1114485</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -610,7 +610,7 @@
         <v>42943</v>
       </c>
       <c r="B28">
-        <v>0.1113446</v>
+        <v>0.1115228</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -618,7 +618,7 @@
         <v>42944</v>
       </c>
       <c r="B29">
-        <v>0.1114179</v>
+        <v>0.1115937</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -626,7 +626,7 @@
         <v>42945</v>
       </c>
       <c r="B30">
-        <v>0.1114877</v>
+        <v>0.1116612</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -634,7 +634,7 @@
         <v>42946</v>
       </c>
       <c r="B31">
-        <v>0.1115537</v>
+        <v>0.1117249</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -642,7 +642,7 @@
         <v>42947</v>
       </c>
       <c r="B32">
-        <v>0.1116159</v>
+        <v>0.1117846</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -650,7 +650,7 @@
         <v>42948</v>
       </c>
       <c r="B33">
-        <v>0.1116739</v>
+        <v>0.1118402</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -658,7 +658,7 @@
         <v>42949</v>
       </c>
       <c r="B34">
-        <v>0.1117276</v>
+        <v>0.1118915</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -666,7 +666,7 @@
         <v>42950</v>
       </c>
       <c r="B35">
-        <v>0.111777</v>
+        <v>0.1119383</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -674,7 +674,7 @@
         <v>42951</v>
       </c>
       <c r="B36">
-        <v>0.1118218</v>
+        <v>0.1119806</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -682,7 +682,7 @@
         <v>42952</v>
       </c>
       <c r="B37">
-        <v>0.1118621</v>
+        <v>0.1120184</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -690,7 +690,7 @@
         <v>42953</v>
       </c>
       <c r="B38">
-        <v>0.1118979</v>
+        <v>0.1120516</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -698,7 +698,7 @@
         <v>42954</v>
       </c>
       <c r="B39">
-        <v>0.1119293</v>
+        <v>0.1120804</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -706,7 +706,7 @@
         <v>42955</v>
       </c>
       <c r="B40">
-        <v>0.1119563</v>
+        <v>0.1121048</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -714,7 +714,7 @@
         <v>42956</v>
       </c>
       <c r="B41">
-        <v>0.1119792</v>
+        <v>0.1121251</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -722,7 +722,7 @@
         <v>42957</v>
       </c>
       <c r="B42">
-        <v>0.1119982</v>
+        <v>0.1121414</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -730,7 +730,7 @@
         <v>42958</v>
       </c>
       <c r="B43">
-        <v>0.1120137</v>
+        <v>0.1121542</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -738,7 +738,7 @@
         <v>42959</v>
       </c>
       <c r="B44">
-        <v>0.112026</v>
+        <v>0.1121638</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -746,7 +746,7 @@
         <v>42960</v>
       </c>
       <c r="B45">
-        <v>0.1120357</v>
+        <v>0.1121706</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -754,7 +754,7 @@
         <v>42961</v>
       </c>
       <c r="B46">
-        <v>0.1120432</v>
+        <v>0.1121753</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -762,7 +762,7 @@
         <v>42962</v>
       </c>
       <c r="B47">
-        <v>0.1120491</v>
+        <v>0.1121783</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -770,7 +770,7 @@
         <v>42963</v>
       </c>
       <c r="B48">
-        <v>0.1120543</v>
+        <v>0.1121804</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -778,7 +778,7 @@
         <v>42964</v>
       </c>
       <c r="B49">
-        <v>0.1120593</v>
+        <v>0.1121822</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -786,7 +786,7 @@
         <v>42965</v>
       </c>
       <c r="B50">
-        <v>0.1120651</v>
+        <v>0.1121847</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -794,7 +794,7 @@
         <v>42966</v>
       </c>
       <c r="B51">
-        <v>0.1120725</v>
+        <v>0.1121887</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -802,7 +802,7 @@
         <v>42967</v>
       </c>
       <c r="B52">
-        <v>0.1120825</v>
+        <v>0.1121951</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -810,7 +810,7 @@
         <v>42968</v>
       </c>
       <c r="B53">
-        <v>0.112096</v>
+        <v>0.1122049</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -818,7 +818,7 @@
         <v>42969</v>
       </c>
       <c r="B54">
-        <v>0.1121141</v>
+        <v>0.1122191</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -826,7 +826,7 @@
         <v>42970</v>
       </c>
       <c r="B55">
-        <v>0.1121379</v>
+        <v>0.1122389</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -834,7 +834,7 @@
         <v>42971</v>
       </c>
       <c r="B56">
-        <v>0.1121686</v>
+        <v>0.1122654</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -842,7 +842,7 @@
         <v>42972</v>
       </c>
       <c r="B57">
-        <v>0.1122072</v>
+        <v>0.1122997</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -850,7 +850,7 @@
         <v>42973</v>
       </c>
       <c r="B58">
-        <v>0.112255</v>
+        <v>0.1123431</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -858,7 +858,7 @@
         <v>42974</v>
       </c>
       <c r="B59">
-        <v>0.1123132</v>
+        <v>0.1123966</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -866,7 +866,7 @@
         <v>42975</v>
       </c>
       <c r="B60">
-        <v>0.1123829</v>
+        <v>0.1124617</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -874,7 +874,7 @@
         <v>42976</v>
       </c>
       <c r="B61">
-        <v>0.1124655</v>
+        <v>0.1125394</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -882,7 +882,7 @@
         <v>42977</v>
       </c>
       <c r="B62">
-        <v>0.112562</v>
+        <v>0.1126311</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -890,7 +890,7 @@
         <v>42978</v>
       </c>
       <c r="B63">
-        <v>0.1126738</v>
+        <v>0.1127379</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -898,7 +898,7 @@
         <v>42979</v>
       </c>
       <c r="B64">
-        <v>0.112802</v>
+        <v>0.1128611</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -906,7 +906,7 @@
         <v>42980</v>
       </c>
       <c r="B65">
-        <v>0.1129479</v>
+        <v>0.113002</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -914,7 +914,7 @@
         <v>42981</v>
       </c>
       <c r="B66">
-        <v>0.1131126</v>
+        <v>0.1131617</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -922,7 +922,7 @@
         <v>42982</v>
       </c>
       <c r="B67">
-        <v>0.1132973</v>
+        <v>0.1133415</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -930,7 +930,7 @@
         <v>42983</v>
       </c>
       <c r="B68">
-        <v>0.1135032</v>
+        <v>0.1135424</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -938,7 +938,7 @@
         <v>42984</v>
       </c>
       <c r="B69">
-        <v>0.1137314</v>
+        <v>0.1137658</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -946,7 +946,7 @@
         <v>42985</v>
       </c>
       <c r="B70">
-        <v>0.113983</v>
+        <v>0.1140126</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -954,7 +954,7 @@
         <v>42986</v>
       </c>
       <c r="B71">
-        <v>0.1142592</v>
+        <v>0.1142842</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -962,7 +962,7 @@
         <v>42987</v>
       </c>
       <c r="B72">
-        <v>0.1145611</v>
+        <v>0.1145815</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -970,7 +970,7 @@
         <v>42988</v>
       </c>
       <c r="B73">
-        <v>0.1148897</v>
+        <v>0.1149058</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -978,7 +978,7 @@
         <v>42989</v>
       </c>
       <c r="B74">
-        <v>0.1152462</v>
+        <v>0.1152582</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -986,7 +986,7 @@
         <v>42990</v>
       </c>
       <c r="B75">
-        <v>0.1156316</v>
+        <v>0.1156396</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -994,7 +994,7 @@
         <v>42991</v>
       </c>
       <c r="B76">
-        <v>0.1160471</v>
+        <v>0.1160514</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>42992</v>
       </c>
       <c r="B77">
-        <v>0.1164938</v>
+        <v>0.1164945</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>42993</v>
       </c>
       <c r="B78">
-        <v>0.1169728</v>
+        <v>0.1169701</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>42994</v>
       </c>
       <c r="B79">
-        <v>0.1174853</v>
+        <v>0.1174794</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>42995</v>
       </c>
       <c r="B80">
-        <v>0.1180323</v>
+        <v>0.1180235</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>42996</v>
       </c>
       <c r="B81">
-        <v>0.1186152</v>
+        <v>0.1186037</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>42997</v>
       </c>
       <c r="B82">
-        <v>0.1192351</v>
+        <v>0.1192212</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>42998</v>
       </c>
       <c r="B83">
-        <v>0.1198933</v>
+        <v>0.1198771</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>42999</v>
       </c>
       <c r="B84">
-        <v>0.1205912</v>
+        <v>0.120573</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>43000</v>
       </c>
       <c r="B85">
-        <v>0.1213301</v>
+        <v>0.1213101</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>43001</v>
       </c>
       <c r="B86">
-        <v>0.1221114</v>
+        <v>0.1220898</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>43002</v>
       </c>
       <c r="B87">
-        <v>0.1229367</v>
+        <v>0.1229136</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>43003</v>
       </c>
       <c r="B88">
-        <v>0.1238074</v>
+        <v>0.1237832</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>43004</v>
       </c>
       <c r="B89">
-        <v>0.1247252</v>
+        <v>0.1246999</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>43005</v>
       </c>
       <c r="B90">
-        <v>0.1256917</v>
+        <v>0.1256657</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>43006</v>
       </c>
       <c r="B91">
-        <v>0.1267088</v>
+        <v>0.1266822</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>43007</v>
       </c>
       <c r="B92">
-        <v>0.1277783</v>
+        <v>0.1277512</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>43008</v>
       </c>
       <c r="B93">
-        <v>0.1289021</v>
+        <v>0.1288746</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>43009</v>
       </c>
       <c r="B94">
-        <v>0.1300823</v>
+        <v>0.1300545</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>43010</v>
       </c>
       <c r="B95">
-        <v>0.1313208</v>
+        <v>0.131293</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>43011</v>
       </c>
       <c r="B96">
-        <v>0.1326198</v>
+        <v>0.1325921</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>43012</v>
       </c>
       <c r="B97">
-        <v>0.1339817</v>
+        <v>0.1339541</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>43013</v>
       </c>
       <c r="B98">
-        <v>0.1354088</v>
+        <v>0.1353814</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>43014</v>
       </c>
       <c r="B99">
-        <v>0.1369034</v>
+        <v>0.1368764</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>43015</v>
       </c>
       <c r="B100">
-        <v>0.138468</v>
+        <v>0.1384414</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>43016</v>
       </c>
       <c r="B101">
-        <v>0.1401052</v>
+        <v>0.1400792</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>43017</v>
       </c>
       <c r="B102">
-        <v>0.1418176</v>
+        <v>0.1417922</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>43018</v>
       </c>
       <c r="B103">
-        <v>0.1436079</v>
+        <v>0.1435831</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>43019</v>
       </c>
       <c r="B104">
-        <v>0.1454788</v>
+        <v>0.1454547</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>43020</v>
       </c>
       <c r="B105">
-        <v>0.1474331</v>
+        <v>0.1474097</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>43021</v>
       </c>
       <c r="B106">
-        <v>0.1494735</v>
+        <v>0.1494509</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>43022</v>
       </c>
       <c r="B107">
-        <v>0.1516029</v>
+        <v>0.151581</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>43023</v>
       </c>
       <c r="B108">
-        <v>0.1538239</v>
+        <v>0.1538029</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>43024</v>
       </c>
       <c r="B109">
-        <v>0.1561395</v>
+        <v>0.1561193</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>43025</v>
       </c>
       <c r="B110">
-        <v>0.1585524</v>
+        <v>0.158533</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>43026</v>
       </c>
       <c r="B111">
-        <v>0.1610651</v>
+        <v>0.1610466</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>43027</v>
       </c>
       <c r="B112">
-        <v>0.1636804</v>
+        <v>0.1636628</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>43028</v>
       </c>
       <c r="B113">
-        <v>0.1664006</v>
+        <v>0.1663839</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>43029</v>
       </c>
       <c r="B114">
-        <v>0.1692282</v>
+        <v>0.1692123</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>43030</v>
       </c>
       <c r="B115">
-        <v>0.1721653</v>
+        <v>0.1721502</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>43031</v>
       </c>
       <c r="B116">
-        <v>0.1752138</v>
+        <v>0.1751996</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>43032</v>
       </c>
       <c r="B117">
-        <v>0.1783756</v>
+        <v>0.1783622</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>43033</v>
       </c>
       <c r="B118">
-        <v>0.1816521</v>
+        <v>0.1816395</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>43034</v>
       </c>
       <c r="B119">
-        <v>0.1850446</v>
+        <v>0.1850328</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>43035</v>
       </c>
       <c r="B120">
-        <v>0.1885539</v>
+        <v>0.1885428</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>43036</v>
       </c>
       <c r="B121">
-        <v>0.1921804</v>
+        <v>0.1921701</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>43037</v>
       </c>
       <c r="B122">
-        <v>0.1959244</v>
+        <v>0.1959148</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>43038</v>
       </c>
       <c r="B123">
-        <v>0.1997855</v>
+        <v>0.1997765</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>43039</v>
       </c>
       <c r="B124">
-        <v>0.2037628</v>
+        <v>0.2037545</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>43040</v>
       </c>
       <c r="B125">
-        <v>0.2078551</v>
+        <v>0.2078475</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>43041</v>
       </c>
       <c r="B126">
-        <v>0.2120607</v>
+        <v>0.2120536</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>43042</v>
       </c>
       <c r="B127">
-        <v>0.216377</v>
+        <v>0.2163705</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>43043</v>
       </c>
       <c r="B128">
-        <v>0.2208012</v>
+        <v>0.2207953</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>43044</v>
       </c>
       <c r="B129">
-        <v>0.2253299</v>
+        <v>0.2253244</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>43045</v>
       </c>
       <c r="B130">
-        <v>0.2299588</v>
+        <v>0.2299538</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>43046</v>
       </c>
       <c r="B131">
-        <v>0.2346832</v>
+        <v>0.2346787</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>43047</v>
       </c>
       <c r="B132">
-        <v>0.239498</v>
+        <v>0.2394939</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>43048</v>
       </c>
       <c r="B133">
-        <v>0.2443972</v>
+        <v>0.2443935</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>43049</v>
       </c>
       <c r="B134">
-        <v>0.2493743</v>
+        <v>0.249371</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>43050</v>
       </c>
       <c r="B135">
-        <v>0.2544223</v>
+        <v>0.2544193</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>43051</v>
       </c>
       <c r="B136">
-        <v>0.2595338</v>
+        <v>0.2595311</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>43052</v>
       </c>
       <c r="B137">
-        <v>0.2647007</v>
+        <v>0.2646983</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>43053</v>
       </c>
       <c r="B138">
-        <v>0.2699146</v>
+        <v>0.2699125</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>43054</v>
       </c>
       <c r="B139">
-        <v>0.2751667</v>
+        <v>0.2751648</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>43055</v>
       </c>
       <c r="B140">
-        <v>0.2804478</v>
+        <v>0.2804462</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>43056</v>
       </c>
       <c r="B141">
-        <v>0.2857486</v>
+        <v>0.2857471</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>43057</v>
       </c>
       <c r="B142">
-        <v>0.2910593</v>
+        <v>0.2910581</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>43058</v>
       </c>
       <c r="B143">
-        <v>0.2963704</v>
+        <v>0.2963693</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>43059</v>
       </c>
       <c r="B144">
-        <v>0.3016719</v>
+        <v>0.3016709</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>43060</v>
       </c>
       <c r="B145">
-        <v>0.3069541</v>
+        <v>0.3069532</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>43061</v>
       </c>
       <c r="B146">
-        <v>0.3122073</v>
+        <v>0.3122065</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>43062</v>
       </c>
       <c r="B147">
-        <v>0.3174219</v>
+        <v>0.3174212</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>43063</v>
       </c>
       <c r="B148">
-        <v>0.3225886</v>
+        <v>0.3225881</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>43064</v>
       </c>
       <c r="B149">
-        <v>0.3276984</v>
+        <v>0.3276979</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>43065</v>
       </c>
       <c r="B150">
-        <v>0.3327426</v>
+        <v>0.3327422</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>43066</v>
       </c>
       <c r="B151">
-        <v>0.337713</v>
+        <v>0.3377126</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>43067</v>
       </c>
       <c r="B152">
-        <v>0.3426017</v>
+        <v>0.3426014</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>43068</v>
       </c>
       <c r="B153">
-        <v>0.3474014</v>
+        <v>0.3474011</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>43069</v>
       </c>
       <c r="B154">
-        <v>0.3521054</v>
+        <v>0.3521052</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>43070</v>
       </c>
       <c r="B155">
-        <v>0.3567075</v>
+        <v>0.3567073</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>43071</v>
       </c>
       <c r="B156">
-        <v>0.3612021</v>
+        <v>0.3612019</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>43072</v>
       </c>
       <c r="B157">
-        <v>0.3655842</v>
+        <v>0.3655841</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>43073</v>
       </c>
       <c r="B158">
-        <v>0.3698496</v>
+        <v>0.3698495</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>43074</v>
       </c>
       <c r="B159">
-        <v>0.3739944</v>
+        <v>0.3739943</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>43075</v>
       </c>
       <c r="B160">
-        <v>0.3780156</v>
+        <v>0.3780155</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>43076</v>
       </c>
       <c r="B161">
-        <v>0.3819107</v>
+        <v>0.3819106</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1730,7 +1730,7 @@
         <v>43083</v>
       </c>
       <c r="B168">
-        <v>0.4055569</v>
+        <v>0.4055568</v>
       </c>
     </row>
     <row r="169" spans="1:2">
